--- a/youtube_webscrab/Tina Huang.xlsx
+++ b/youtube_webscrab/Tina Huang.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76072</v>
+        <v>86325</v>
       </c>
       <c r="E2" t="n">
-        <v>4438</v>
+        <v>4835</v>
       </c>
       <c r="F2" t="n">
-        <v>813</v>
+        <v>958</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45017</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12593</v>
+        <v>12879</v>
       </c>
       <c r="E3" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F3" t="n">
         <v>78</v>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15027</v>
+        <v>15510</v>
       </c>
       <c r="E4" t="n">
-        <v>1211</v>
+        <v>1252</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>44997</v>
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>882405</v>
+        <v>922907</v>
       </c>
       <c r="E5" t="n">
-        <v>37560</v>
+        <v>38708</v>
       </c>
       <c r="F5" t="n">
-        <v>1130</v>
+        <v>1164</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44987</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38262</v>
+        <v>38457</v>
       </c>
       <c r="E6" t="n">
-        <v>2435</v>
+        <v>2444</v>
       </c>
       <c r="F6" t="n">
         <v>89</v>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>448951</v>
+        <v>452080</v>
       </c>
       <c r="E7" t="n">
-        <v>23408</v>
+        <v>23548</v>
       </c>
       <c r="F7" t="n">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>44954</v>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86185</v>
+        <v>87458</v>
       </c>
       <c r="E8" t="n">
-        <v>5255</v>
+        <v>5334</v>
       </c>
       <c r="F8" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>44936</v>
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>635114</v>
+        <v>636793</v>
       </c>
       <c r="E9" t="n">
-        <v>34146</v>
+        <v>34230</v>
       </c>
       <c r="F9" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>44927</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>409495</v>
+        <v>411740</v>
       </c>
       <c r="E10" t="n">
-        <v>22091</v>
+        <v>22192</v>
       </c>
       <c r="F10" t="n">
         <v>367</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22666</v>
+        <v>22719</v>
       </c>
       <c r="E11" t="n">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F11" t="n">
         <v>97</v>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>102724</v>
+        <v>102786</v>
       </c>
       <c r="E12" t="n">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="F12" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>44892</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>316090</v>
+        <v>316383</v>
       </c>
       <c r="E13" t="n">
-        <v>20852</v>
+        <v>20874</v>
       </c>
       <c r="F13" t="n">
         <v>626</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>85804</v>
+        <v>86124</v>
       </c>
       <c r="E14" t="n">
-        <v>5317</v>
+        <v>5330</v>
       </c>
       <c r="F14" t="n">
         <v>224</v>
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60720</v>
+        <v>60826</v>
       </c>
       <c r="E15" t="n">
-        <v>3303</v>
+        <v>3311</v>
       </c>
       <c r="F15" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>44831</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45526</v>
+        <v>45549</v>
       </c>
       <c r="E16" t="n">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F16" t="n">
         <v>169</v>
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>105903</v>
+        <v>106229</v>
       </c>
       <c r="E17" t="n">
-        <v>5926</v>
+        <v>5948</v>
       </c>
       <c r="F17" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>44771</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56318</v>
+        <v>56412</v>
       </c>
       <c r="E18" t="n">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="F18" t="n">
         <v>245</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65999</v>
+        <v>66047</v>
       </c>
       <c r="E19" t="n">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="F19" t="n">
         <v>401</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>129514</v>
+        <v>129970</v>
       </c>
       <c r="E20" t="n">
-        <v>7234</v>
+        <v>7260</v>
       </c>
       <c r="F20" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44739</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69229</v>
+        <v>69319</v>
       </c>
       <c r="E21" t="n">
-        <v>3862</v>
+        <v>3868</v>
       </c>
       <c r="F21" t="n">
         <v>185</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>229153</v>
+        <v>229211</v>
       </c>
       <c r="E22" t="n">
-        <v>12466</v>
+        <v>12470</v>
       </c>
       <c r="F22" t="n">
         <v>779</v>
@@ -1161,13 +1161,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>240296</v>
+        <v>240387</v>
       </c>
       <c r="E23" t="n">
-        <v>9929</v>
+        <v>9933</v>
       </c>
       <c r="F23" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44714</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>115176</v>
+        <v>115288</v>
       </c>
       <c r="E24" t="n">
-        <v>6318</v>
+        <v>6320</v>
       </c>
       <c r="F24" t="n">
         <v>227</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>94939</v>
+        <v>95127</v>
       </c>
       <c r="E25" t="n">
-        <v>4903</v>
+        <v>4907</v>
       </c>
       <c r="F25" t="n">
         <v>132</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>196279</v>
+        <v>196379</v>
       </c>
       <c r="E26" t="n">
-        <v>11259</v>
+        <v>11265</v>
       </c>
       <c r="F26" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>44688</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61353</v>
+        <v>61371</v>
       </c>
       <c r="E27" t="n">
         <v>3657</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>123803</v>
+        <v>123850</v>
       </c>
       <c r="E28" t="n">
-        <v>5998</v>
+        <v>5999</v>
       </c>
       <c r="F28" t="n">
         <v>284</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67440</v>
+        <v>67495</v>
       </c>
       <c r="E29" t="n">
-        <v>4084</v>
+        <v>4088</v>
       </c>
       <c r="F29" t="n">
         <v>189</v>
@@ -1385,13 +1385,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>421400</v>
+        <v>421971</v>
       </c>
       <c r="E30" t="n">
-        <v>17150</v>
+        <v>17166</v>
       </c>
       <c r="F30" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44660</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56858</v>
+        <v>56893</v>
       </c>
       <c r="E31" t="n">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="F31" t="n">
         <v>200</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90395</v>
+        <v>90422</v>
       </c>
       <c r="E32" t="n">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="F32" t="n">
         <v>237</v>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>60410</v>
+        <v>60470</v>
       </c>
       <c r="E33" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>44638</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>38097</v>
+        <v>38118</v>
       </c>
       <c r="E34" t="n">
         <v>1578</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48567</v>
+        <v>48581</v>
       </c>
       <c r="E35" t="n">
         <v>1830</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34233</v>
+        <v>34244</v>
       </c>
       <c r="E36" t="n">
         <v>1407</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>344884</v>
+        <v>345049</v>
       </c>
       <c r="E37" t="n">
-        <v>17202</v>
+        <v>17206</v>
       </c>
       <c r="F37" t="n">
         <v>579</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>57957</v>
+        <v>57962</v>
       </c>
       <c r="E38" t="n">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F38" t="n">
         <v>150</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>615520</v>
+        <v>615843</v>
       </c>
       <c r="E39" t="n">
-        <v>38820</v>
+        <v>38837</v>
       </c>
       <c r="F39" t="n">
         <v>624</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>14446</v>
+        <v>14453</v>
       </c>
       <c r="E40" t="n">
         <v>595</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>202150</v>
+        <v>202179</v>
       </c>
       <c r="E41" t="n">
-        <v>9095</v>
+        <v>9096</v>
       </c>
       <c r="F41" t="n">
         <v>382</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>49339</v>
+        <v>49348</v>
       </c>
       <c r="E42" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="F42" t="n">
         <v>102</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22622</v>
+        <v>22627</v>
       </c>
       <c r="E43" t="n">
         <v>939</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>62616</v>
+        <v>62636</v>
       </c>
       <c r="E44" t="n">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="F44" t="n">
         <v>125</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>120135</v>
+        <v>120146</v>
       </c>
       <c r="E45" t="n">
         <v>2987</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>75618</v>
+        <v>75662</v>
       </c>
       <c r="E46" t="n">
-        <v>4217</v>
+        <v>4221</v>
       </c>
       <c r="F46" t="n">
         <v>159</v>
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>200082</v>
+        <v>200150</v>
       </c>
       <c r="E47" t="n">
-        <v>7858</v>
+        <v>7862</v>
       </c>
       <c r="F47" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>44528</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31321</v>
+        <v>31329</v>
       </c>
       <c r="E48" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F48" t="n">
         <v>52</v>
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>106391</v>
+        <v>106463</v>
       </c>
       <c r="E49" t="n">
-        <v>6838</v>
+        <v>6846</v>
       </c>
       <c r="F49" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>44509</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>138053</v>
+        <v>138134</v>
       </c>
       <c r="E50" t="n">
-        <v>7604</v>
+        <v>7609</v>
       </c>
       <c r="F50" t="n">
         <v>204</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11943</v>
+        <v>11944</v>
       </c>
       <c r="E51" t="n">
         <v>487</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>80293</v>
+        <v>80338</v>
       </c>
       <c r="E52" t="n">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="F52" t="n">
         <v>172</v>
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2085951</v>
+        <v>2090444</v>
       </c>
       <c r="E53" t="n">
-        <v>95654</v>
+        <v>95800</v>
       </c>
       <c r="F53" t="n">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>44478</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>272315</v>
+        <v>272423</v>
       </c>
       <c r="E54" t="n">
-        <v>9887</v>
+        <v>9892</v>
       </c>
       <c r="F54" t="n">
         <v>483</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>687625</v>
+        <v>688398</v>
       </c>
       <c r="E55" t="n">
-        <v>19700</v>
+        <v>19712</v>
       </c>
       <c r="F55" t="n">
         <v>950</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>495140</v>
+        <v>495227</v>
       </c>
       <c r="E56" t="n">
-        <v>22029</v>
+        <v>22037</v>
       </c>
       <c r="F56" t="n">
         <v>860</v>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>98444</v>
+        <v>98466</v>
       </c>
       <c r="E57" t="n">
         <v>4635</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>49514</v>
+        <v>49533</v>
       </c>
       <c r="E58" t="n">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="F58" t="n">
         <v>146</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>315426</v>
+        <v>315591</v>
       </c>
       <c r="E59" t="n">
-        <v>15777</v>
+        <v>15788</v>
       </c>
       <c r="F59" t="n">
         <v>352</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>52481</v>
+        <v>52519</v>
       </c>
       <c r="E60" t="n">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F60" t="n">
         <v>144</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>199928</v>
+        <v>200153</v>
       </c>
       <c r="E61" t="n">
-        <v>10147</v>
+        <v>10162</v>
       </c>
       <c r="F61" t="n">
         <v>253</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>34824</v>
+        <v>34843</v>
       </c>
       <c r="E62" t="n">
         <v>1358</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>74929</v>
+        <v>74975</v>
       </c>
       <c r="E63" t="n">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="F63" t="n">
         <v>145</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>188356</v>
+        <v>188418</v>
       </c>
       <c r="E64" t="n">
-        <v>8960</v>
+        <v>8963</v>
       </c>
       <c r="F64" t="n">
         <v>257</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>29720</v>
+        <v>29735</v>
       </c>
       <c r="E65" t="n">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F65" t="n">
         <v>151</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30342</v>
+        <v>30357</v>
       </c>
       <c r="E66" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F66" t="n">
         <v>50</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>62866</v>
+        <v>62872</v>
       </c>
       <c r="E67" t="n">
         <v>1851</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>262557</v>
+        <v>262710</v>
       </c>
       <c r="E68" t="n">
-        <v>10568</v>
+        <v>10574</v>
       </c>
       <c r="F68" t="n">
         <v>270</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7134</v>
+        <v>7135</v>
       </c>
       <c r="E69" t="n">
         <v>192</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50586</v>
+        <v>50625</v>
       </c>
       <c r="E70" t="n">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="F70" t="n">
         <v>134</v>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>22739</v>
+        <v>22742</v>
       </c>
       <c r="E71" t="n">
         <v>653</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>81479</v>
+        <v>81570</v>
       </c>
       <c r="E72" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="F72" t="n">
         <v>85</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3147459</v>
+        <v>3149041</v>
       </c>
       <c r="E73" t="n">
-        <v>177441</v>
+        <v>177522</v>
       </c>
       <c r="F73" t="n">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44311</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>82796</v>
+        <v>82864</v>
       </c>
       <c r="E74" t="n">
         <v>1865</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>452080</v>
+        <v>452346</v>
       </c>
       <c r="E75" t="n">
-        <v>13946</v>
+        <v>13948</v>
       </c>
       <c r="F75" t="n">
         <v>588</v>
@@ -2857,13 +2857,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2124670</v>
+        <v>2133995</v>
       </c>
       <c r="E76" t="n">
-        <v>75614</v>
+        <v>75932</v>
       </c>
       <c r="F76" t="n">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44290</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>53644</v>
+        <v>53710</v>
       </c>
       <c r="E77" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F77" t="n">
         <v>200</v>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>330388</v>
+        <v>330574</v>
       </c>
       <c r="E78" t="n">
-        <v>11495</v>
+        <v>11499</v>
       </c>
       <c r="F78" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>44275</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27374</v>
+        <v>27384</v>
       </c>
       <c r="E79" t="n">
         <v>830</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15670</v>
+        <v>15676</v>
       </c>
       <c r="E81" t="n">
         <v>680</v>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6128</v>
+        <v>6129</v>
       </c>
       <c r="E82" t="n">
         <v>220</v>
@@ -3081,13 +3081,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50495</v>
+        <v>50537</v>
       </c>
       <c r="E83" t="n">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F83" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44248</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>18301</v>
+        <v>18302</v>
       </c>
       <c r="E84" t="n">
         <v>681</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5718</v>
+        <v>5722</v>
       </c>
       <c r="E85" t="n">
         <v>294</v>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>61094</v>
+        <v>61115</v>
       </c>
       <c r="E86" t="n">
         <v>2251</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>292361</v>
+        <v>292377</v>
       </c>
       <c r="E87" t="n">
-        <v>7692</v>
+        <v>7693</v>
       </c>
       <c r="F87" t="n">
         <v>515</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>99261</v>
+        <v>99319</v>
       </c>
       <c r="E88" t="n">
-        <v>4043</v>
+        <v>4045</v>
       </c>
       <c r="F88" t="n">
         <v>224</v>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>15606</v>
+        <v>15607</v>
       </c>
       <c r="E89" t="n">
         <v>355</v>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>467063</v>
+        <v>467191</v>
       </c>
       <c r="E90" t="n">
-        <v>21369</v>
+        <v>21381</v>
       </c>
       <c r="F90" t="n">
         <v>631</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8984</v>
+        <v>8988</v>
       </c>
       <c r="E91" t="n">
         <v>439</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>11369</v>
+        <v>11375</v>
       </c>
       <c r="E92" t="n">
         <v>300</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14467</v>
+        <v>14471</v>
       </c>
       <c r="E93" t="n">
         <v>300</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>38297</v>
+        <v>38364</v>
       </c>
       <c r="E94" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="F94" t="n">
         <v>63</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>18693</v>
+        <v>18704</v>
       </c>
       <c r="E95" t="n">
         <v>368</v>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15683</v>
+        <v>15701</v>
       </c>
       <c r="E96" t="n">
         <v>478</v>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>104344</v>
+        <v>104425</v>
       </c>
       <c r="E97" t="n">
         <v>2686</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>9534</v>
+        <v>9535</v>
       </c>
       <c r="E98" t="n">
         <v>251</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>230059</v>
+        <v>230100</v>
       </c>
       <c r="E99" t="n">
         <v>6180</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>7345</v>
+        <v>7347</v>
       </c>
       <c r="E100" t="n">
         <v>188</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>29053</v>
+        <v>29064</v>
       </c>
       <c r="E101" t="n">
         <v>1934</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7375</v>
+        <v>7379</v>
       </c>
       <c r="E102" t="n">
         <v>186</v>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5059</v>
+        <v>5064</v>
       </c>
       <c r="E103" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F103" t="n">
         <v>22</v>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>12465</v>
+        <v>12468</v>
       </c>
       <c r="E104" t="n">
         <v>322</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14667</v>
+        <v>14677</v>
       </c>
       <c r="E105" t="n">
         <v>318</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="E106" t="n">
         <v>164</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>14540</v>
+        <v>14545</v>
       </c>
       <c r="E107" t="n">
         <v>341</v>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>89446</v>
+        <v>89505</v>
       </c>
       <c r="E108" t="n">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="F108" t="n">
         <v>205</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="E109" t="n">
         <v>130</v>
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>30116</v>
+        <v>30132</v>
       </c>
       <c r="E110" t="n">
         <v>890</v>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>22516</v>
+        <v>22526</v>
       </c>
       <c r="E111" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F111" t="n">
         <v>72</v>
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>227584</v>
+        <v>227648</v>
       </c>
       <c r="E112" t="n">
-        <v>7854</v>
+        <v>7857</v>
       </c>
       <c r="F112" t="n">
         <v>302</v>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>12879</v>
+        <v>12891</v>
       </c>
       <c r="E113" t="n">
         <v>350</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>19199</v>
+        <v>19224</v>
       </c>
       <c r="E114" t="n">
         <v>1016</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>68400</v>
+        <v>68428</v>
       </c>
       <c r="E115" t="n">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="F115" t="n">
         <v>204</v>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="E116" t="n">
         <v>71</v>
@@ -4169,10 +4169,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>106686</v>
+        <v>106735</v>
       </c>
       <c r="E117" t="n">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="F117" t="n">
         <v>233</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6777</v>
+        <v>6784</v>
       </c>
       <c r="E118" t="n">
         <v>190</v>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>15375</v>
+        <v>15389</v>
       </c>
       <c r="E119" t="n">
         <v>441</v>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>29848</v>
+        <v>29864</v>
       </c>
       <c r="E120" t="n">
         <v>994</v>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>369166</v>
+        <v>369452</v>
       </c>
       <c r="E121" t="n">
-        <v>16876</v>
+        <v>16886</v>
       </c>
       <c r="F121" t="n">
         <v>656</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>21580</v>
+        <v>21594</v>
       </c>
       <c r="E122" t="n">
         <v>351</v>

--- a/youtube_webscrab/Tina Huang.xlsx
+++ b/youtube_webscrab/Tina Huang.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86325</v>
+        <v>88761</v>
       </c>
       <c r="E2" t="n">
-        <v>4835</v>
+        <v>4930</v>
       </c>
       <c r="F2" t="n">
-        <v>958</v>
+        <v>988</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45017</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12879</v>
+        <v>12944</v>
       </c>
       <c r="E3" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F3" t="n">
         <v>78</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15510</v>
+        <v>15672</v>
       </c>
       <c r="E4" t="n">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>922907</v>
+        <v>931418</v>
       </c>
       <c r="E5" t="n">
-        <v>38708</v>
+        <v>38916</v>
       </c>
       <c r="F5" t="n">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44987</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38457</v>
+        <v>38507</v>
       </c>
       <c r="E6" t="n">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="F6" t="n">
         <v>89</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>452080</v>
+        <v>452721</v>
       </c>
       <c r="E7" t="n">
-        <v>23548</v>
+        <v>23575</v>
       </c>
       <c r="F7" t="n">
         <v>886</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87458</v>
+        <v>87817</v>
       </c>
       <c r="E8" t="n">
-        <v>5334</v>
+        <v>5350</v>
       </c>
       <c r="F8" t="n">
         <v>245</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>636793</v>
+        <v>637319</v>
       </c>
       <c r="E9" t="n">
-        <v>34230</v>
+        <v>34250</v>
       </c>
       <c r="F9" t="n">
         <v>532</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>411740</v>
+        <v>412186</v>
       </c>
       <c r="E10" t="n">
-        <v>22192</v>
+        <v>22207</v>
       </c>
       <c r="F10" t="n">
         <v>367</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22719</v>
+        <v>22726</v>
       </c>
       <c r="E11" t="n">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="F11" t="n">
         <v>97</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>102786</v>
+        <v>102794</v>
       </c>
       <c r="E12" t="n">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="F12" t="n">
         <v>336</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>316383</v>
+        <v>316487</v>
       </c>
       <c r="E13" t="n">
-        <v>20874</v>
+        <v>20877</v>
       </c>
       <c r="F13" t="n">
         <v>626</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86124</v>
+        <v>86175</v>
       </c>
       <c r="E14" t="n">
-        <v>5330</v>
+        <v>5333</v>
       </c>
       <c r="F14" t="n">
         <v>224</v>
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60826</v>
+        <v>60846</v>
       </c>
       <c r="E15" t="n">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>44831</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45549</v>
+        <v>45561</v>
       </c>
       <c r="E16" t="n">
         <v>2405</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>106229</v>
+        <v>106321</v>
       </c>
       <c r="E17" t="n">
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="F17" t="n">
         <v>235</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56412</v>
+        <v>56427</v>
       </c>
       <c r="E18" t="n">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F18" t="n">
         <v>245</v>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66047</v>
+        <v>66056</v>
       </c>
       <c r="E19" t="n">
         <v>3254</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>129970</v>
+        <v>130080</v>
       </c>
       <c r="E20" t="n">
-        <v>7260</v>
+        <v>7267</v>
       </c>
       <c r="F20" t="n">
         <v>470</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69319</v>
+        <v>69346</v>
       </c>
       <c r="E21" t="n">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F21" t="n">
         <v>185</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>229211</v>
+        <v>229228</v>
       </c>
       <c r="E22" t="n">
-        <v>12470</v>
+        <v>12471</v>
       </c>
       <c r="F22" t="n">
         <v>779</v>
@@ -1161,13 +1161,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>240387</v>
+        <v>240399</v>
       </c>
       <c r="E23" t="n">
         <v>9933</v>
       </c>
       <c r="F23" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44714</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>115288</v>
+        <v>115322</v>
       </c>
       <c r="E24" t="n">
-        <v>6320</v>
+        <v>6322</v>
       </c>
       <c r="F24" t="n">
         <v>227</v>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>95127</v>
+        <v>95172</v>
       </c>
       <c r="E25" t="n">
         <v>4907</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>196379</v>
+        <v>196409</v>
       </c>
       <c r="E26" t="n">
-        <v>11265</v>
+        <v>11266</v>
       </c>
       <c r="F26" t="n">
         <v>288</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61371</v>
+        <v>61379</v>
       </c>
       <c r="E27" t="n">
         <v>3657</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>123850</v>
+        <v>123867</v>
       </c>
       <c r="E28" t="n">
-        <v>5999</v>
+        <v>6000</v>
       </c>
       <c r="F28" t="n">
         <v>284</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67495</v>
+        <v>67517</v>
       </c>
       <c r="E29" t="n">
         <v>4088</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>421971</v>
+        <v>422138</v>
       </c>
       <c r="E30" t="n">
-        <v>17166</v>
+        <v>17172</v>
       </c>
       <c r="F30" t="n">
         <v>246</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56893</v>
+        <v>56899</v>
       </c>
       <c r="E31" t="n">
         <v>3790</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>44656</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90422</v>
+        <v>90429</v>
       </c>
       <c r="E32" t="n">
-        <v>5604</v>
+        <v>5605</v>
       </c>
       <c r="F32" t="n">
         <v>237</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>60470</v>
+        <v>60491</v>
       </c>
       <c r="E33" t="n">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="F33" t="n">
         <v>96</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>38118</v>
+        <v>38123</v>
       </c>
       <c r="E34" t="n">
         <v>1578</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48581</v>
+        <v>48583</v>
       </c>
       <c r="E35" t="n">
         <v>1830</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34244</v>
+        <v>34251</v>
       </c>
       <c r="E36" t="n">
         <v>1407</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>345049</v>
+        <v>345107</v>
       </c>
       <c r="E37" t="n">
-        <v>17206</v>
+        <v>17208</v>
       </c>
       <c r="F37" t="n">
         <v>579</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>57962</v>
+        <v>57968</v>
       </c>
       <c r="E38" t="n">
         <v>3205</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>615843</v>
+        <v>615916</v>
       </c>
       <c r="E39" t="n">
-        <v>38837</v>
+        <v>38842</v>
       </c>
       <c r="F39" t="n">
         <v>624</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>14453</v>
+        <v>14455</v>
       </c>
       <c r="E40" t="n">
         <v>595</v>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>202179</v>
+        <v>202189</v>
       </c>
       <c r="E41" t="n">
         <v>9096</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>49348</v>
+        <v>49350</v>
       </c>
       <c r="E42" t="n">
         <v>2593</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22627</v>
+        <v>22628</v>
       </c>
       <c r="E43" t="n">
         <v>939</v>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>62636</v>
+        <v>62642</v>
       </c>
       <c r="E44" t="n">
         <v>3095</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>120146</v>
+        <v>120155</v>
       </c>
       <c r="E45" t="n">
         <v>2987</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>75662</v>
+        <v>75674</v>
       </c>
       <c r="E46" t="n">
         <v>4221</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>200150</v>
+        <v>200159</v>
       </c>
       <c r="E47" t="n">
         <v>7862</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31329</v>
+        <v>31332</v>
       </c>
       <c r="E48" t="n">
         <v>1122</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>106463</v>
+        <v>106487</v>
       </c>
       <c r="E49" t="n">
-        <v>6846</v>
+        <v>6849</v>
       </c>
       <c r="F49" t="n">
         <v>328</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>138134</v>
+        <v>138178</v>
       </c>
       <c r="E50" t="n">
-        <v>7609</v>
+        <v>7612</v>
       </c>
       <c r="F50" t="n">
         <v>204</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>80338</v>
+        <v>80344</v>
       </c>
       <c r="E52" t="n">
         <v>3475</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2090444</v>
+        <v>2091641</v>
       </c>
       <c r="E53" t="n">
-        <v>95800</v>
+        <v>95821</v>
       </c>
       <c r="F53" t="n">
         <v>1798</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>272423</v>
+        <v>272456</v>
       </c>
       <c r="E54" t="n">
-        <v>9892</v>
+        <v>9895</v>
       </c>
       <c r="F54" t="n">
         <v>483</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>688398</v>
+        <v>688545</v>
       </c>
       <c r="E55" t="n">
-        <v>19712</v>
+        <v>19715</v>
       </c>
       <c r="F55" t="n">
         <v>950</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>495227</v>
+        <v>495251</v>
       </c>
       <c r="E56" t="n">
         <v>22037</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>98466</v>
+        <v>98474</v>
       </c>
       <c r="E57" t="n">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="F57" t="n">
         <v>176</v>
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>49533</v>
+        <v>49538</v>
       </c>
       <c r="E58" t="n">
         <v>3044</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>315591</v>
+        <v>315626</v>
       </c>
       <c r="E59" t="n">
-        <v>15788</v>
+        <v>15789</v>
       </c>
       <c r="F59" t="n">
         <v>352</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>52519</v>
+        <v>52533</v>
       </c>
       <c r="E60" t="n">
         <v>1368</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>200153</v>
+        <v>200220</v>
       </c>
       <c r="E61" t="n">
-        <v>10162</v>
+        <v>10166</v>
       </c>
       <c r="F61" t="n">
         <v>253</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>74975</v>
+        <v>74990</v>
       </c>
       <c r="E63" t="n">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="F63" t="n">
         <v>145</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>188418</v>
+        <v>188439</v>
       </c>
       <c r="E64" t="n">
-        <v>8963</v>
+        <v>8964</v>
       </c>
       <c r="F64" t="n">
         <v>257</v>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>29735</v>
+        <v>29738</v>
       </c>
       <c r="E65" t="n">
         <v>1518</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30357</v>
+        <v>30361</v>
       </c>
       <c r="E66" t="n">
         <v>870</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>62872</v>
+        <v>62873</v>
       </c>
       <c r="E67" t="n">
         <v>1851</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>262710</v>
+        <v>262754</v>
       </c>
       <c r="E68" t="n">
-        <v>10574</v>
+        <v>10577</v>
       </c>
       <c r="F68" t="n">
         <v>270</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50625</v>
+        <v>50631</v>
       </c>
       <c r="E70" t="n">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="F70" t="n">
         <v>134</v>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>22742</v>
+        <v>22743</v>
       </c>
       <c r="E71" t="n">
         <v>653</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>81570</v>
+        <v>81599</v>
       </c>
       <c r="E72" t="n">
         <v>1691</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3149041</v>
+        <v>3149552</v>
       </c>
       <c r="E73" t="n">
-        <v>177522</v>
+        <v>177544</v>
       </c>
       <c r="F73" t="n">
         <v>2523</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>82864</v>
+        <v>82877</v>
       </c>
       <c r="E74" t="n">
         <v>1865</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>452346</v>
+        <v>452420</v>
       </c>
       <c r="E75" t="n">
-        <v>13948</v>
+        <v>13949</v>
       </c>
       <c r="F75" t="n">
         <v>588</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2133995</v>
+        <v>2136500</v>
       </c>
       <c r="E76" t="n">
-        <v>75932</v>
+        <v>75989</v>
       </c>
       <c r="F76" t="n">
         <v>1709</v>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>53710</v>
+        <v>53732</v>
       </c>
       <c r="E77" t="n">
         <v>964</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>330574</v>
+        <v>330607</v>
       </c>
       <c r="E78" t="n">
         <v>11499</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27384</v>
+        <v>27390</v>
       </c>
       <c r="E79" t="n">
         <v>830</v>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6129</v>
+        <v>6130</v>
       </c>
       <c r="E82" t="n">
         <v>220</v>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50537</v>
+        <v>50550</v>
       </c>
       <c r="E83" t="n">
         <v>1481</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="E85" t="n">
         <v>294</v>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>61115</v>
+        <v>61121</v>
       </c>
       <c r="E86" t="n">
         <v>2251</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>292377</v>
+        <v>292389</v>
       </c>
       <c r="E87" t="n">
         <v>7693</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>99319</v>
+        <v>99327</v>
       </c>
       <c r="E88" t="n">
         <v>4045</v>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>15607</v>
+        <v>15609</v>
       </c>
       <c r="E89" t="n">
         <v>355</v>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>467191</v>
+        <v>467223</v>
       </c>
       <c r="E90" t="n">
-        <v>21381</v>
+        <v>21383</v>
       </c>
       <c r="F90" t="n">
         <v>631</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>11375</v>
+        <v>11376</v>
       </c>
       <c r="E92" t="n">
         <v>300</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14471</v>
+        <v>14472</v>
       </c>
       <c r="E93" t="n">
         <v>300</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>38364</v>
+        <v>38385</v>
       </c>
       <c r="E94" t="n">
         <v>1985</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>18704</v>
+        <v>18705</v>
       </c>
       <c r="E95" t="n">
         <v>368</v>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15701</v>
+        <v>15703</v>
       </c>
       <c r="E96" t="n">
         <v>478</v>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>104425</v>
+        <v>104440</v>
       </c>
       <c r="E97" t="n">
         <v>2686</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>9535</v>
+        <v>9536</v>
       </c>
       <c r="E98" t="n">
         <v>251</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>230100</v>
+        <v>230116</v>
       </c>
       <c r="E99" t="n">
         <v>6180</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>29064</v>
+        <v>29067</v>
       </c>
       <c r="E101" t="n">
         <v>1934</v>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>12468</v>
+        <v>12469</v>
       </c>
       <c r="E104" t="n">
         <v>322</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14677</v>
+        <v>14678</v>
       </c>
       <c r="E105" t="n">
         <v>318</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>14545</v>
+        <v>14546</v>
       </c>
       <c r="E107" t="n">
         <v>341</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>89505</v>
+        <v>89522</v>
       </c>
       <c r="E108" t="n">
         <v>2666</v>
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>30132</v>
+        <v>30136</v>
       </c>
       <c r="E110" t="n">
         <v>890</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>22526</v>
+        <v>22528</v>
       </c>
       <c r="E111" t="n">
         <v>1189</v>
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>227648</v>
+        <v>227673</v>
       </c>
       <c r="E112" t="n">
-        <v>7857</v>
+        <v>7859</v>
       </c>
       <c r="F112" t="n">
         <v>302</v>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>12891</v>
+        <v>12894</v>
       </c>
       <c r="E113" t="n">
         <v>350</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>19224</v>
+        <v>19233</v>
       </c>
       <c r="E114" t="n">
         <v>1016</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>68428</v>
+        <v>68434</v>
       </c>
       <c r="E115" t="n">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="F115" t="n">
         <v>204</v>
@@ -4169,10 +4169,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>106735</v>
+        <v>106745</v>
       </c>
       <c r="E117" t="n">
-        <v>6326</v>
+        <v>6327</v>
       </c>
       <c r="F117" t="n">
         <v>233</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6784</v>
+        <v>6785</v>
       </c>
       <c r="E118" t="n">
         <v>190</v>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>15389</v>
+        <v>15392</v>
       </c>
       <c r="E119" t="n">
         <v>441</v>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>29864</v>
+        <v>29869</v>
       </c>
       <c r="E120" t="n">
         <v>994</v>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>369452</v>
+        <v>369532</v>
       </c>
       <c r="E121" t="n">
-        <v>16886</v>
+        <v>16890</v>
       </c>
       <c r="F121" t="n">
         <v>656</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>21594</v>
+        <v>21595</v>
       </c>
       <c r="E122" t="n">
         <v>351</v>
